--- a/academias/Laboratorio Clínico - Estadisticos 20211.xlsx
+++ b/academias/Laboratorio Clínico - Estadisticos 20211.xlsx
@@ -580,22 +580,25 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>70.97</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>29.03</v>
+      </c>
+      <c r="I4">
+        <v>7.1</v>
       </c>
       <c r="J4">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -612,22 +615,25 @@
         <v>34</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>76.47</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>23.53</v>
+      </c>
+      <c r="I5">
+        <v>7.3</v>
       </c>
       <c r="J5">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -644,22 +650,25 @@
         <v>31</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>7.7</v>
       </c>
       <c r="J6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,22 +685,25 @@
         <v>34</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>8.6</v>
       </c>
       <c r="J7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1476,22 +1488,25 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>70.97</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>29.03</v>
+      </c>
+      <c r="I4">
+        <v>7.1</v>
       </c>
       <c r="J4">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1508,22 +1523,25 @@
         <v>34</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>76.47</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>23.53</v>
+      </c>
+      <c r="I5">
+        <v>7.3</v>
       </c>
       <c r="J5">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1540,22 +1558,25 @@
         <v>31</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>7.7</v>
       </c>
       <c r="J6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1572,22 +1593,25 @@
         <v>34</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>8.6</v>
       </c>
       <c r="J7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">

--- a/academias/Laboratorio Clínico - Estadisticos 20211.xlsx
+++ b/academias/Laboratorio Clínico - Estadisticos 20211.xlsx
@@ -542,28 +542,28 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>27</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>79.41</v>
+        <v>77.14</v>
       </c>
       <c r="H3">
-        <v>20.59</v>
+        <v>22.86</v>
       </c>
       <c r="I3">
         <v>7.4</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -857,28 +857,28 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>22</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>64.70999999999999</v>
+        <v>62.86</v>
       </c>
       <c r="H12">
-        <v>35.29</v>
+        <v>37.14</v>
       </c>
       <c r="I12">
         <v>6.6</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1011,13 +1011,13 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>100</v>
       </c>
       <c r="J3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -1299,13 +1299,13 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>100</v>
       </c>
       <c r="J12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K12">
         <v>100</v>
@@ -1450,28 +1450,28 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>27</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>79.41</v>
+        <v>77.14</v>
       </c>
       <c r="H3">
-        <v>20.59</v>
+        <v>22.86</v>
       </c>
       <c r="I3">
         <v>7.4</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1765,28 +1765,28 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>22</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>64.70999999999999</v>
+        <v>62.86</v>
       </c>
       <c r="H12">
-        <v>35.29</v>
+        <v>37.14</v>
       </c>
       <c r="I12">
         <v>6.9</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="13" spans="1:11">
